--- a/7/1/1/3/2/Series originales 1996 a 2021 - Trimestral.xlsx
+++ b/7/1/1/3/2/Series originales 1996 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>Serie</t>
   </si>
@@ -422,6 +422,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -779,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI102"/>
+  <dimension ref="A1:AI103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -953,6 +956,12 @@
       <c r="Z2">
         <v>1256</v>
       </c>
+      <c r="AA2">
+        <v>733</v>
+      </c>
+      <c r="AB2">
+        <v>535</v>
+      </c>
       <c r="AC2">
         <v>1414</v>
       </c>
@@ -961,6 +970,9 @@
       </c>
       <c r="AE2">
         <v>989</v>
+      </c>
+      <c r="AF2">
+        <v>15471</v>
       </c>
       <c r="AG2">
         <v>1055</v>
@@ -1033,6 +1045,12 @@
       <c r="Z3">
         <v>1304</v>
       </c>
+      <c r="AA3">
+        <v>736</v>
+      </c>
+      <c r="AB3">
+        <v>574</v>
+      </c>
       <c r="AC3">
         <v>1398</v>
       </c>
@@ -1041,6 +1059,9 @@
       </c>
       <c r="AE3">
         <v>996</v>
+      </c>
+      <c r="AF3">
+        <v>15685</v>
       </c>
       <c r="AG3">
         <v>1058</v>
@@ -1113,6 +1134,12 @@
       <c r="Z4">
         <v>1306</v>
       </c>
+      <c r="AA4">
+        <v>733</v>
+      </c>
+      <c r="AB4">
+        <v>579</v>
+      </c>
       <c r="AC4">
         <v>1411</v>
       </c>
@@ -1121,6 +1148,9 @@
       </c>
       <c r="AE4">
         <v>1000</v>
+      </c>
+      <c r="AF4">
+        <v>15006</v>
       </c>
       <c r="AG4">
         <v>1060</v>
@@ -1193,6 +1223,12 @@
       <c r="Z5">
         <v>1376</v>
       </c>
+      <c r="AA5">
+        <v>737</v>
+      </c>
+      <c r="AB5">
+        <v>637</v>
+      </c>
       <c r="AC5">
         <v>1471</v>
       </c>
@@ -1201,6 +1237,9 @@
       </c>
       <c r="AE5">
         <v>1003</v>
+      </c>
+      <c r="AF5">
+        <v>16362</v>
       </c>
       <c r="AG5">
         <v>1164</v>
@@ -1273,6 +1312,12 @@
       <c r="Z6">
         <v>1344</v>
       </c>
+      <c r="AA6">
+        <v>733</v>
+      </c>
+      <c r="AB6">
+        <v>612</v>
+      </c>
       <c r="AC6">
         <v>1493</v>
       </c>
@@ -1281,6 +1326,9 @@
       </c>
       <c r="AE6">
         <v>1006</v>
+      </c>
+      <c r="AF6">
+        <v>16323</v>
       </c>
       <c r="AG6">
         <v>1117</v>
@@ -1353,6 +1401,12 @@
       <c r="Z7">
         <v>1389</v>
       </c>
+      <c r="AA7">
+        <v>705</v>
+      </c>
+      <c r="AB7">
+        <v>673</v>
+      </c>
       <c r="AC7">
         <v>1477</v>
       </c>
@@ -1361,6 +1415,9 @@
       </c>
       <c r="AE7">
         <v>1010</v>
+      </c>
+      <c r="AF7">
+        <v>16765</v>
       </c>
       <c r="AG7">
         <v>1126</v>
@@ -1433,6 +1490,12 @@
       <c r="Z8">
         <v>1414</v>
       </c>
+      <c r="AA8">
+        <v>701</v>
+      </c>
+      <c r="AB8">
+        <v>698</v>
+      </c>
       <c r="AC8">
         <v>1490</v>
       </c>
@@ -1441,6 +1504,9 @@
       </c>
       <c r="AE8">
         <v>1013</v>
+      </c>
+      <c r="AF8">
+        <v>16146</v>
       </c>
       <c r="AG8">
         <v>1171</v>
@@ -1513,6 +1579,12 @@
       <c r="Z9">
         <v>1533</v>
       </c>
+      <c r="AA9">
+        <v>715</v>
+      </c>
+      <c r="AB9">
+        <v>791</v>
+      </c>
       <c r="AC9">
         <v>1552</v>
       </c>
@@ -1521,6 +1593,9 @@
       </c>
       <c r="AE9">
         <v>1015</v>
+      </c>
+      <c r="AF9">
+        <v>17788</v>
       </c>
       <c r="AG9">
         <v>1306</v>
@@ -1593,6 +1668,12 @@
       <c r="Z10">
         <v>1517</v>
       </c>
+      <c r="AA10">
+        <v>733</v>
+      </c>
+      <c r="AB10">
+        <v>768</v>
+      </c>
       <c r="AC10">
         <v>1558</v>
       </c>
@@ -1601,6 +1682,9 @@
       </c>
       <c r="AE10">
         <v>1023</v>
+      </c>
+      <c r="AF10">
+        <v>17523</v>
       </c>
       <c r="AG10">
         <v>1237</v>
@@ -1673,6 +1757,12 @@
       <c r="Z11">
         <v>1599</v>
       </c>
+      <c r="AA11">
+        <v>729</v>
+      </c>
+      <c r="AB11">
+        <v>850</v>
+      </c>
       <c r="AC11">
         <v>1534</v>
       </c>
@@ -1681,6 +1771,9 @@
       </c>
       <c r="AE11">
         <v>1024</v>
+      </c>
+      <c r="AF11">
+        <v>17867</v>
       </c>
       <c r="AG11">
         <v>1250</v>
@@ -1753,6 +1846,12 @@
       <c r="Z12">
         <v>1597</v>
       </c>
+      <c r="AA12">
+        <v>716</v>
+      </c>
+      <c r="AB12">
+        <v>860</v>
+      </c>
       <c r="AC12">
         <v>1538</v>
       </c>
@@ -1761,6 +1860,9 @@
       </c>
       <c r="AE12">
         <v>1031</v>
+      </c>
+      <c r="AF12">
+        <v>16794</v>
       </c>
       <c r="AG12">
         <v>1219</v>
@@ -1833,6 +1935,12 @@
       <c r="Z13">
         <v>1605</v>
       </c>
+      <c r="AA13">
+        <v>683</v>
+      </c>
+      <c r="AB13">
+        <v>900</v>
+      </c>
       <c r="AC13">
         <v>1577</v>
       </c>
@@ -1841,6 +1949,9 @@
       </c>
       <c r="AE13">
         <v>1030</v>
+      </c>
+      <c r="AF13">
+        <v>17652</v>
       </c>
       <c r="AG13">
         <v>1265</v>
@@ -1913,6 +2024,12 @@
       <c r="Z14">
         <v>1558</v>
       </c>
+      <c r="AA14">
+        <v>688</v>
+      </c>
+      <c r="AB14">
+        <v>848</v>
+      </c>
       <c r="AC14">
         <v>1592</v>
       </c>
@@ -1921,6 +2038,9 @@
       </c>
       <c r="AE14">
         <v>1039</v>
+      </c>
+      <c r="AF14">
+        <v>17186</v>
       </c>
       <c r="AG14">
         <v>1176</v>
@@ -1993,6 +2113,12 @@
       <c r="Z15">
         <v>1612</v>
       </c>
+      <c r="AA15">
+        <v>677</v>
+      </c>
+      <c r="AB15">
+        <v>908</v>
+      </c>
       <c r="AC15">
         <v>1562</v>
       </c>
@@ -2001,6 +2127,9 @@
       </c>
       <c r="AE15">
         <v>1039</v>
+      </c>
+      <c r="AF15">
+        <v>17375</v>
       </c>
       <c r="AG15">
         <v>1161</v>
@@ -2073,6 +2202,12 @@
       <c r="Z16">
         <v>1637</v>
       </c>
+      <c r="AA16">
+        <v>671</v>
+      </c>
+      <c r="AB16">
+        <v>936</v>
+      </c>
       <c r="AC16">
         <v>1571</v>
       </c>
@@ -2081,6 +2216,9 @@
       </c>
       <c r="AE16">
         <v>1048</v>
+      </c>
+      <c r="AF16">
+        <v>16731</v>
       </c>
       <c r="AG16">
         <v>1189</v>
@@ -2153,6 +2291,12 @@
       <c r="Z17">
         <v>1777</v>
       </c>
+      <c r="AA17">
+        <v>689</v>
+      </c>
+      <c r="AB17">
+        <v>1051</v>
+      </c>
       <c r="AC17">
         <v>1626</v>
       </c>
@@ -2161,6 +2305,9 @@
       </c>
       <c r="AE17">
         <v>1043</v>
+      </c>
+      <c r="AF17">
+        <v>18609</v>
       </c>
       <c r="AG17">
         <v>1329</v>
@@ -2233,6 +2380,12 @@
       <c r="Z18">
         <v>1735</v>
       </c>
+      <c r="AA18">
+        <v>705</v>
+      </c>
+      <c r="AB18">
+        <v>999</v>
+      </c>
       <c r="AC18">
         <v>1618</v>
       </c>
@@ -2241,6 +2394,9 @@
       </c>
       <c r="AE18">
         <v>1055</v>
+      </c>
+      <c r="AF18">
+        <v>18253</v>
       </c>
       <c r="AG18">
         <v>1241</v>
@@ -2313,6 +2469,12 @@
       <c r="Z19">
         <v>1799</v>
       </c>
+      <c r="AA19">
+        <v>689</v>
+      </c>
+      <c r="AB19">
+        <v>1075</v>
+      </c>
       <c r="AC19">
         <v>1575</v>
       </c>
@@ -2321,6 +2483,9 @@
       </c>
       <c r="AE19">
         <v>1053</v>
+      </c>
+      <c r="AF19">
+        <v>18404</v>
       </c>
       <c r="AG19">
         <v>1247</v>
@@ -2393,6 +2558,12 @@
       <c r="Z20">
         <v>1835</v>
       </c>
+      <c r="AA20">
+        <v>698</v>
+      </c>
+      <c r="AB20">
+        <v>1102</v>
+      </c>
       <c r="AC20">
         <v>1584</v>
       </c>
@@ -2401,6 +2572,9 @@
       </c>
       <c r="AE20">
         <v>1064</v>
+      </c>
+      <c r="AF20">
+        <v>17603</v>
       </c>
       <c r="AG20">
         <v>1264</v>
@@ -2473,6 +2647,12 @@
       <c r="Z21">
         <v>1966</v>
       </c>
+      <c r="AA21">
+        <v>715</v>
+      </c>
+      <c r="AB21">
+        <v>1210</v>
+      </c>
       <c r="AC21">
         <v>1654</v>
       </c>
@@ -2481,6 +2661,9 @@
       </c>
       <c r="AE21">
         <v>1058</v>
+      </c>
+      <c r="AF21">
+        <v>19240</v>
       </c>
       <c r="AG21">
         <v>1377</v>
@@ -2553,6 +2736,12 @@
       <c r="Z22">
         <v>1912</v>
       </c>
+      <c r="AA22">
+        <v>735</v>
+      </c>
+      <c r="AB22">
+        <v>1140</v>
+      </c>
       <c r="AC22">
         <v>1682</v>
       </c>
@@ -2561,6 +2750,9 @@
       </c>
       <c r="AE22">
         <v>1075</v>
+      </c>
+      <c r="AF22">
+        <v>18890</v>
       </c>
       <c r="AG22">
         <v>1288</v>
@@ -2633,6 +2825,12 @@
       <c r="Z23">
         <v>1998</v>
       </c>
+      <c r="AA23">
+        <v>731</v>
+      </c>
+      <c r="AB23">
+        <v>1233</v>
+      </c>
       <c r="AC23">
         <v>1666</v>
       </c>
@@ -2641,6 +2839,9 @@
       </c>
       <c r="AE23">
         <v>1069</v>
+      </c>
+      <c r="AF23">
+        <v>19224</v>
       </c>
       <c r="AG23">
         <v>1291</v>
@@ -2713,6 +2914,12 @@
       <c r="Z24">
         <v>1983</v>
       </c>
+      <c r="AA24">
+        <v>719</v>
+      </c>
+      <c r="AB24">
+        <v>1230</v>
+      </c>
       <c r="AC24">
         <v>1672</v>
       </c>
@@ -2721,6 +2928,9 @@
       </c>
       <c r="AE24">
         <v>1081</v>
+      </c>
+      <c r="AF24">
+        <v>18135</v>
       </c>
       <c r="AG24">
         <v>1287</v>
@@ -2793,6 +3003,12 @@
       <c r="Z25">
         <v>2099</v>
       </c>
+      <c r="AA25">
+        <v>728</v>
+      </c>
+      <c r="AB25">
+        <v>1340</v>
+      </c>
       <c r="AC25">
         <v>1728</v>
       </c>
@@ -2801,6 +3017,9 @@
       </c>
       <c r="AE25">
         <v>1075</v>
+      </c>
+      <c r="AF25">
+        <v>19714</v>
       </c>
       <c r="AG25">
         <v>1398</v>
@@ -2873,6 +3092,12 @@
       <c r="Z26">
         <v>2041</v>
       </c>
+      <c r="AA26">
+        <v>740</v>
+      </c>
+      <c r="AB26">
+        <v>1268</v>
+      </c>
       <c r="AC26">
         <v>1725</v>
       </c>
@@ -2881,6 +3106,9 @@
       </c>
       <c r="AE26">
         <v>1096</v>
+      </c>
+      <c r="AF26">
+        <v>19199</v>
       </c>
       <c r="AG26">
         <v>1310</v>
@@ -2953,6 +3181,12 @@
       <c r="Z27">
         <v>2122</v>
       </c>
+      <c r="AA27">
+        <v>725</v>
+      </c>
+      <c r="AB27">
+        <v>1373</v>
+      </c>
       <c r="AC27">
         <v>1691</v>
       </c>
@@ -2961,6 +3195,9 @@
       </c>
       <c r="AE27">
         <v>1091</v>
+      </c>
+      <c r="AF27">
+        <v>19731</v>
       </c>
       <c r="AG27">
         <v>1314</v>
@@ -3033,6 +3270,12 @@
       <c r="Z28">
         <v>2112</v>
       </c>
+      <c r="AA28">
+        <v>711</v>
+      </c>
+      <c r="AB28">
+        <v>1380</v>
+      </c>
       <c r="AC28">
         <v>1700</v>
       </c>
@@ -3041,6 +3284,9 @@
       </c>
       <c r="AE28">
         <v>1105</v>
+      </c>
+      <c r="AF28">
+        <v>18877</v>
       </c>
       <c r="AG28">
         <v>1327</v>
@@ -3113,6 +3359,12 @@
       <c r="Z29">
         <v>2248</v>
       </c>
+      <c r="AA29">
+        <v>715</v>
+      </c>
+      <c r="AB29">
+        <v>1521</v>
+      </c>
       <c r="AC29">
         <v>1782</v>
       </c>
@@ -3121,6 +3373,9 @@
       </c>
       <c r="AE29">
         <v>1094</v>
+      </c>
+      <c r="AF29">
+        <v>20554</v>
       </c>
       <c r="AG29">
         <v>1454</v>
@@ -3193,6 +3448,12 @@
       <c r="Z30">
         <v>2161</v>
       </c>
+      <c r="AA30">
+        <v>709</v>
+      </c>
+      <c r="AB30">
+        <v>1437</v>
+      </c>
       <c r="AC30">
         <v>1817</v>
       </c>
@@ -3201,6 +3462,9 @@
       </c>
       <c r="AE30">
         <v>1115</v>
+      </c>
+      <c r="AF30">
+        <v>20085</v>
       </c>
       <c r="AG30">
         <v>1359</v>
@@ -3273,6 +3537,12 @@
       <c r="Z31">
         <v>2254</v>
       </c>
+      <c r="AA31">
+        <v>701</v>
+      </c>
+      <c r="AB31">
+        <v>1551</v>
+      </c>
       <c r="AC31">
         <v>1801</v>
       </c>
@@ -3281,6 +3551,9 @@
       </c>
       <c r="AE31">
         <v>1108</v>
+      </c>
+      <c r="AF31">
+        <v>20556</v>
       </c>
       <c r="AG31">
         <v>1373</v>
@@ -3353,6 +3626,12 @@
       <c r="Z32">
         <v>2259</v>
       </c>
+      <c r="AA32">
+        <v>700</v>
+      </c>
+      <c r="AB32">
+        <v>1557</v>
+      </c>
       <c r="AC32">
         <v>1813</v>
       </c>
@@ -3361,6 +3640,9 @@
       </c>
       <c r="AE32">
         <v>1126</v>
+      </c>
+      <c r="AF32">
+        <v>19589</v>
       </c>
       <c r="AG32">
         <v>1393</v>
@@ -3433,6 +3715,12 @@
       <c r="Z33">
         <v>2414</v>
       </c>
+      <c r="AA33">
+        <v>721</v>
+      </c>
+      <c r="AB33">
+        <v>1701</v>
+      </c>
       <c r="AC33">
         <v>1880</v>
       </c>
@@ -3441,6 +3729,9 @@
       </c>
       <c r="AE33">
         <v>1124</v>
+      </c>
+      <c r="AF33">
+        <v>21216</v>
       </c>
       <c r="AG33">
         <v>1532</v>
@@ -3513,6 +3804,12 @@
       <c r="Z34">
         <v>2407</v>
       </c>
+      <c r="AA34">
+        <v>759</v>
+      </c>
+      <c r="AB34">
+        <v>1643</v>
+      </c>
       <c r="AC34">
         <v>1888</v>
       </c>
@@ -3521,6 +3818,9 @@
       </c>
       <c r="AE34">
         <v>1137</v>
+      </c>
+      <c r="AF34">
+        <v>21004</v>
       </c>
       <c r="AG34">
         <v>1455</v>
@@ -3593,6 +3893,12 @@
       <c r="Z35">
         <v>2575</v>
       </c>
+      <c r="AA35">
+        <v>787</v>
+      </c>
+      <c r="AB35">
+        <v>1789</v>
+      </c>
       <c r="AC35">
         <v>1850</v>
       </c>
@@ -3601,6 +3907,9 @@
       </c>
       <c r="AE35">
         <v>1136</v>
+      </c>
+      <c r="AF35">
+        <v>21761</v>
       </c>
       <c r="AG35">
         <v>1504</v>
@@ -3673,6 +3982,12 @@
       <c r="Z36">
         <v>2642</v>
       </c>
+      <c r="AA36">
+        <v>810</v>
+      </c>
+      <c r="AB36">
+        <v>1833</v>
+      </c>
       <c r="AC36">
         <v>1863</v>
       </c>
@@ -3681,6 +3996,9 @@
       </c>
       <c r="AE36">
         <v>1155</v>
+      </c>
+      <c r="AF36">
+        <v>21134</v>
       </c>
       <c r="AG36">
         <v>1540</v>
@@ -3753,6 +4071,12 @@
       <c r="Z37">
         <v>2837</v>
       </c>
+      <c r="AA37">
+        <v>845</v>
+      </c>
+      <c r="AB37">
+        <v>2002</v>
+      </c>
       <c r="AC37">
         <v>1943</v>
       </c>
@@ -3761,6 +4085,9 @@
       </c>
       <c r="AE37">
         <v>1145</v>
+      </c>
+      <c r="AF37">
+        <v>23121</v>
       </c>
       <c r="AG37">
         <v>1705</v>
@@ -3833,6 +4160,12 @@
       <c r="Z38">
         <v>2773</v>
       </c>
+      <c r="AA38">
+        <v>892</v>
+      </c>
+      <c r="AB38">
+        <v>1871</v>
+      </c>
       <c r="AC38">
         <v>1964</v>
       </c>
@@ -3841,6 +4174,9 @@
       </c>
       <c r="AE38">
         <v>1171</v>
+      </c>
+      <c r="AF38">
+        <v>22210</v>
       </c>
       <c r="AG38">
         <v>1613</v>
@@ -3913,6 +4249,12 @@
       <c r="Z39">
         <v>2922</v>
       </c>
+      <c r="AA39">
+        <v>892</v>
+      </c>
+      <c r="AB39">
+        <v>2033</v>
+      </c>
       <c r="AC39">
         <v>1937</v>
       </c>
@@ -3921,6 +4263,9 @@
       </c>
       <c r="AE39">
         <v>1180</v>
+      </c>
+      <c r="AF39">
+        <v>22904</v>
       </c>
       <c r="AG39">
         <v>1642</v>
@@ -3993,6 +4338,12 @@
       <c r="Z40">
         <v>2942</v>
       </c>
+      <c r="AA40">
+        <v>876</v>
+      </c>
+      <c r="AB40">
+        <v>2075</v>
+      </c>
       <c r="AC40">
         <v>1949</v>
       </c>
@@ -4001,6 +4352,9 @@
       </c>
       <c r="AE40">
         <v>1200</v>
+      </c>
+      <c r="AF40">
+        <v>22183</v>
       </c>
       <c r="AG40">
         <v>1677</v>
@@ -4073,6 +4427,12 @@
       <c r="Z41">
         <v>3167</v>
       </c>
+      <c r="AA41">
+        <v>901</v>
+      </c>
+      <c r="AB41">
+        <v>2288</v>
+      </c>
       <c r="AC41">
         <v>2018</v>
       </c>
@@ -4081,6 +4441,9 @@
       </c>
       <c r="AE41">
         <v>1193</v>
+      </c>
+      <c r="AF41">
+        <v>24346</v>
       </c>
       <c r="AG41">
         <v>1848</v>
@@ -4153,6 +4516,12 @@
       <c r="Z42">
         <v>3122</v>
       </c>
+      <c r="AA42">
+        <v>936</v>
+      </c>
+      <c r="AB42">
+        <v>2193</v>
+      </c>
       <c r="AC42">
         <v>2015</v>
       </c>
@@ -4161,6 +4530,9 @@
       </c>
       <c r="AE42">
         <v>1207</v>
+      </c>
+      <c r="AF42">
+        <v>23538</v>
       </c>
       <c r="AG42">
         <v>1735</v>
@@ -4233,6 +4605,12 @@
       <c r="Z43">
         <v>3318</v>
       </c>
+      <c r="AA43">
+        <v>936</v>
+      </c>
+      <c r="AB43">
+        <v>2399</v>
+      </c>
       <c r="AC43">
         <v>1970</v>
       </c>
@@ -4241,6 +4619,9 @@
       </c>
       <c r="AE43">
         <v>1217</v>
+      </c>
+      <c r="AF43">
+        <v>24385</v>
       </c>
       <c r="AG43">
         <v>1777</v>
@@ -4313,6 +4694,12 @@
       <c r="Z44">
         <v>3376</v>
       </c>
+      <c r="AA44">
+        <v>957</v>
+      </c>
+      <c r="AB44">
+        <v>2437</v>
+      </c>
       <c r="AC44">
         <v>1985</v>
       </c>
@@ -4321,6 +4708,9 @@
       </c>
       <c r="AE44">
         <v>1239</v>
+      </c>
+      <c r="AF44">
+        <v>23489</v>
       </c>
       <c r="AG44">
         <v>1793</v>
@@ -4393,6 +4783,12 @@
       <c r="Z45">
         <v>3638</v>
       </c>
+      <c r="AA45">
+        <v>987</v>
+      </c>
+      <c r="AB45">
+        <v>2677</v>
+      </c>
       <c r="AC45">
         <v>2087</v>
       </c>
@@ -4401,6 +4797,9 @@
       </c>
       <c r="AE45">
         <v>1237</v>
+      </c>
+      <c r="AF45">
+        <v>25857</v>
       </c>
       <c r="AG45">
         <v>1987</v>
@@ -4473,6 +4872,12 @@
       <c r="Z46">
         <v>3581</v>
       </c>
+      <c r="AA46">
+        <v>1048</v>
+      </c>
+      <c r="AB46">
+        <v>2545</v>
+      </c>
       <c r="AC46">
         <v>2137</v>
       </c>
@@ -4481,6 +4886,9 @@
       </c>
       <c r="AE46">
         <v>1250</v>
+      </c>
+      <c r="AF46">
+        <v>24816</v>
       </c>
       <c r="AG46">
         <v>1885</v>
@@ -4553,6 +4961,12 @@
       <c r="Z47">
         <v>3785</v>
       </c>
+      <c r="AA47">
+        <v>1096</v>
+      </c>
+      <c r="AB47">
+        <v>2704</v>
+      </c>
       <c r="AC47">
         <v>2114</v>
       </c>
@@ -4561,6 +4975,9 @@
       </c>
       <c r="AE47">
         <v>1258</v>
+      </c>
+      <c r="AF47">
+        <v>25649</v>
       </c>
       <c r="AG47">
         <v>1919</v>
@@ -4633,6 +5050,12 @@
       <c r="Z48">
         <v>3774</v>
       </c>
+      <c r="AA48">
+        <v>1133</v>
+      </c>
+      <c r="AB48">
+        <v>2647</v>
+      </c>
       <c r="AC48">
         <v>2132</v>
       </c>
@@ -4641,6 +5064,9 @@
       </c>
       <c r="AE48">
         <v>1281</v>
+      </c>
+      <c r="AF48">
+        <v>24413</v>
       </c>
       <c r="AG48">
         <v>1930</v>
@@ -4713,6 +5139,12 @@
       <c r="Z49">
         <v>4081</v>
       </c>
+      <c r="AA49">
+        <v>1197</v>
+      </c>
+      <c r="AB49">
+        <v>2897</v>
+      </c>
       <c r="AC49">
         <v>2251</v>
       </c>
@@ -4721,6 +5153,9 @@
       </c>
       <c r="AE49">
         <v>1282</v>
+      </c>
+      <c r="AF49">
+        <v>26796</v>
       </c>
       <c r="AG49">
         <v>2156</v>
@@ -4793,6 +5228,12 @@
       <c r="Z50">
         <v>3805</v>
       </c>
+      <c r="AA50">
+        <v>1243</v>
+      </c>
+      <c r="AB50">
+        <v>2541</v>
+      </c>
       <c r="AC50">
         <v>2238</v>
       </c>
@@ -4801,6 +5242,9 @@
       </c>
       <c r="AE50">
         <v>1262</v>
+      </c>
+      <c r="AF50">
+        <v>26027</v>
       </c>
       <c r="AG50">
         <v>2052</v>
@@ -4873,6 +5317,12 @@
       <c r="Z51">
         <v>4065</v>
       </c>
+      <c r="AA51">
+        <v>1265</v>
+      </c>
+      <c r="AB51">
+        <v>2794</v>
+      </c>
       <c r="AC51">
         <v>2196</v>
       </c>
@@ -4881,6 +5331,9 @@
       </c>
       <c r="AE51">
         <v>1294</v>
+      </c>
+      <c r="AF51">
+        <v>26721</v>
       </c>
       <c r="AG51">
         <v>2070</v>
@@ -4953,6 +5406,12 @@
       <c r="Z52">
         <v>4095</v>
       </c>
+      <c r="AA52">
+        <v>1228</v>
+      </c>
+      <c r="AB52">
+        <v>2873</v>
+      </c>
       <c r="AC52">
         <v>2155</v>
       </c>
@@ -4961,6 +5420,9 @@
       </c>
       <c r="AE52">
         <v>1322</v>
+      </c>
+      <c r="AF52">
+        <v>25198</v>
       </c>
       <c r="AG52">
         <v>2029</v>
@@ -5033,6 +5495,12 @@
       <c r="Z53">
         <v>4429</v>
       </c>
+      <c r="AA53">
+        <v>1262</v>
+      </c>
+      <c r="AB53">
+        <v>3190</v>
+      </c>
       <c r="AC53">
         <v>2198</v>
       </c>
@@ -5041,6 +5509,9 @@
       </c>
       <c r="AE53">
         <v>1323</v>
+      </c>
+      <c r="AF53">
+        <v>27097</v>
       </c>
       <c r="AG53">
         <v>2136</v>
@@ -5113,6 +5584,12 @@
       <c r="Z54">
         <v>4176</v>
       </c>
+      <c r="AA54">
+        <v>1268</v>
+      </c>
+      <c r="AB54">
+        <v>2910</v>
+      </c>
       <c r="AC54">
         <v>2158</v>
       </c>
@@ -5121,6 +5598,9 @@
       </c>
       <c r="AE54">
         <v>1328</v>
+      </c>
+      <c r="AF54">
+        <v>25321</v>
       </c>
       <c r="AG54">
         <v>1979</v>
@@ -5193,6 +5673,12 @@
       <c r="Z55">
         <v>4242</v>
       </c>
+      <c r="AA55">
+        <v>1240</v>
+      </c>
+      <c r="AB55">
+        <v>3015</v>
+      </c>
       <c r="AC55">
         <v>2087</v>
       </c>
@@ -5201,6 +5687,9 @@
       </c>
       <c r="AE55">
         <v>1350</v>
+      </c>
+      <c r="AF55">
+        <v>25969</v>
       </c>
       <c r="AG55">
         <v>1929</v>
@@ -5273,6 +5762,12 @@
       <c r="Z56">
         <v>4247</v>
       </c>
+      <c r="AA56">
+        <v>1258</v>
+      </c>
+      <c r="AB56">
+        <v>2999</v>
+      </c>
       <c r="AC56">
         <v>2094</v>
       </c>
@@ -5281,6 +5776,9 @@
       </c>
       <c r="AE56">
         <v>1392</v>
+      </c>
+      <c r="AF56">
+        <v>25004</v>
       </c>
       <c r="AG56">
         <v>1965</v>
@@ -5353,6 +5851,12 @@
       <c r="Z57">
         <v>4390</v>
       </c>
+      <c r="AA57">
+        <v>1275</v>
+      </c>
+      <c r="AB57">
+        <v>3130</v>
+      </c>
       <c r="AC57">
         <v>2201</v>
       </c>
@@ -5361,6 +5865,9 @@
       </c>
       <c r="AE57">
         <v>1421</v>
+      </c>
+      <c r="AF57">
+        <v>27324</v>
       </c>
       <c r="AG57">
         <v>2183</v>
@@ -5433,6 +5940,12 @@
       <c r="Z58">
         <v>4278</v>
       </c>
+      <c r="AA58">
+        <v>1310</v>
+      </c>
+      <c r="AB58">
+        <v>2968</v>
+      </c>
       <c r="AC58">
         <v>2213</v>
       </c>
@@ -5441,6 +5954,9 @@
       </c>
       <c r="AE58">
         <v>1398</v>
+      </c>
+      <c r="AF58">
+        <v>25721</v>
       </c>
       <c r="AG58">
         <v>2062</v>
@@ -5513,6 +6029,12 @@
       <c r="Z59">
         <v>4450</v>
       </c>
+      <c r="AA59">
+        <v>1331</v>
+      </c>
+      <c r="AB59">
+        <v>3126</v>
+      </c>
       <c r="AC59">
         <v>2105</v>
       </c>
@@ -5521,6 +6043,9 @@
       </c>
       <c r="AE59">
         <v>1405</v>
+      </c>
+      <c r="AF59">
+        <v>27407</v>
       </c>
       <c r="AG59">
         <v>2208</v>
@@ -5593,6 +6118,12 @@
       <c r="Z60">
         <v>4429</v>
       </c>
+      <c r="AA60">
+        <v>1342</v>
+      </c>
+      <c r="AB60">
+        <v>3090</v>
+      </c>
       <c r="AC60">
         <v>2165</v>
       </c>
@@ -5601,6 +6132,9 @@
       </c>
       <c r="AE60">
         <v>1414</v>
+      </c>
+      <c r="AF60">
+        <v>26694</v>
       </c>
       <c r="AG60">
         <v>2246</v>
@@ -5673,6 +6207,12 @@
       <c r="Z61">
         <v>4731</v>
       </c>
+      <c r="AA61">
+        <v>1394</v>
+      </c>
+      <c r="AB61">
+        <v>3350</v>
+      </c>
       <c r="AC61">
         <v>2277</v>
       </c>
@@ -5681,6 +6221,9 @@
       </c>
       <c r="AE61">
         <v>1438</v>
+      </c>
+      <c r="AF61">
+        <v>29193</v>
       </c>
       <c r="AG61">
         <v>2511</v>
@@ -5753,6 +6296,12 @@
       <c r="Z62">
         <v>4661</v>
       </c>
+      <c r="AA62">
+        <v>1452</v>
+      </c>
+      <c r="AB62">
+        <v>3206</v>
+      </c>
       <c r="AC62">
         <v>2304</v>
       </c>
@@ -5761,6 +6310,9 @@
       </c>
       <c r="AE62">
         <v>1386</v>
+      </c>
+      <c r="AF62">
+        <v>28015</v>
       </c>
       <c r="AG62">
         <v>2330</v>
@@ -5833,6 +6385,12 @@
       <c r="Z63">
         <v>4868</v>
       </c>
+      <c r="AA63">
+        <v>1464</v>
+      </c>
+      <c r="AB63">
+        <v>3410</v>
+      </c>
       <c r="AC63">
         <v>2257</v>
       </c>
@@ -5841,6 +6399,9 @@
       </c>
       <c r="AE63">
         <v>1415</v>
+      </c>
+      <c r="AF63">
+        <v>29123</v>
       </c>
       <c r="AG63">
         <v>2391</v>
@@ -5913,6 +6474,12 @@
       <c r="Z64">
         <v>4824</v>
       </c>
+      <c r="AA64">
+        <v>1481</v>
+      </c>
+      <c r="AB64">
+        <v>3344</v>
+      </c>
       <c r="AC64">
         <v>2271</v>
       </c>
@@ -5921,6 +6488,9 @@
       </c>
       <c r="AE64">
         <v>1459</v>
+      </c>
+      <c r="AF64">
+        <v>27733</v>
       </c>
       <c r="AG64">
         <v>2411</v>
@@ -5993,6 +6563,12 @@
       <c r="Z65">
         <v>5175</v>
       </c>
+      <c r="AA65">
+        <v>1521</v>
+      </c>
+      <c r="AB65">
+        <v>3667</v>
+      </c>
       <c r="AC65">
         <v>2333</v>
       </c>
@@ -6001,6 +6577,9 @@
       </c>
       <c r="AE65">
         <v>1467</v>
+      </c>
+      <c r="AF65">
+        <v>30517</v>
       </c>
       <c r="AG65">
         <v>2697</v>
@@ -6073,6 +6652,12 @@
       <c r="Z66">
         <v>5026</v>
       </c>
+      <c r="AA66">
+        <v>1589</v>
+      </c>
+      <c r="AB66">
+        <v>3432</v>
+      </c>
       <c r="AC66">
         <v>2363</v>
       </c>
@@ -6081,6 +6666,9 @@
       </c>
       <c r="AE66">
         <v>1459</v>
+      </c>
+      <c r="AF66">
+        <v>29383</v>
       </c>
       <c r="AG66">
         <v>2486</v>
@@ -6153,6 +6741,12 @@
       <c r="Z67">
         <v>5215</v>
       </c>
+      <c r="AA67">
+        <v>1593</v>
+      </c>
+      <c r="AB67">
+        <v>3624</v>
+      </c>
       <c r="AC67">
         <v>2327</v>
       </c>
@@ -6161,6 +6755,9 @@
       </c>
       <c r="AE67">
         <v>1482</v>
+      </c>
+      <c r="AF67">
+        <v>30679</v>
       </c>
       <c r="AG67">
         <v>2573</v>
@@ -6233,6 +6830,12 @@
       <c r="Z68">
         <v>5169</v>
       </c>
+      <c r="AA68">
+        <v>1614</v>
+      </c>
+      <c r="AB68">
+        <v>3552</v>
+      </c>
       <c r="AC68">
         <v>2340</v>
       </c>
@@ -6241,6 +6844,9 @@
       </c>
       <c r="AE68">
         <v>1495</v>
+      </c>
+      <c r="AF68">
+        <v>29253</v>
       </c>
       <c r="AG68">
         <v>2600</v>
@@ -6313,6 +6919,12 @@
       <c r="Z69">
         <v>5470</v>
       </c>
+      <c r="AA69">
+        <v>1660</v>
+      </c>
+      <c r="AB69">
+        <v>3815</v>
+      </c>
       <c r="AC69">
         <v>2421</v>
       </c>
@@ -6321,6 +6933,9 @@
       </c>
       <c r="AE69">
         <v>1508</v>
+      </c>
+      <c r="AF69">
+        <v>32003</v>
       </c>
       <c r="AG69">
         <v>2892</v>
@@ -9761,106 +10376,213 @@
         <v>135</v>
       </c>
       <c r="B102">
-        <v>1945</v>
+        <v>1974</v>
       </c>
       <c r="C102">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D102">
-        <v>3602</v>
+        <v>3600</v>
       </c>
       <c r="E102">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="F102">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G102">
-        <v>4056</v>
+        <v>4087</v>
       </c>
       <c r="H102">
-        <v>1625</v>
+        <v>1650</v>
       </c>
       <c r="I102">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="J102">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="K102">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L102">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M102">
         <v>279</v>
       </c>
       <c r="N102">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="O102">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P102">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Q102">
         <v>231</v>
       </c>
       <c r="R102">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="S102">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="T102">
-        <v>1993</v>
+        <v>1999</v>
       </c>
       <c r="U102">
-        <v>4716</v>
+        <v>4694</v>
       </c>
       <c r="V102">
-        <v>4182</v>
+        <v>4161</v>
       </c>
       <c r="W102">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="X102">
-        <v>1727</v>
+        <v>1714</v>
       </c>
       <c r="Y102">
-        <v>1416</v>
+        <v>1431</v>
       </c>
       <c r="Z102">
-        <v>5779</v>
+        <v>5788</v>
       </c>
       <c r="AA102">
-        <v>2217</v>
+        <v>2214</v>
       </c>
       <c r="AB102">
-        <v>3618</v>
+        <v>3629</v>
       </c>
       <c r="AC102">
-        <v>2948</v>
+        <v>2963</v>
       </c>
       <c r="AD102">
-        <v>3308</v>
+        <v>3315</v>
       </c>
       <c r="AE102">
-        <v>1872</v>
+        <v>1882</v>
       </c>
       <c r="AF102">
-        <v>34584</v>
+        <v>34660</v>
       </c>
       <c r="AG102">
-        <v>3224</v>
+        <v>3210</v>
       </c>
       <c r="AH102">
         <v>206</v>
       </c>
       <c r="AI102">
-        <v>38012</v>
+        <v>38076</v>
+      </c>
+    </row>
+    <row r="103" spans="1:35">
+      <c r="A103" t="s">
+        <v>136</v>
+      </c>
+      <c r="B103">
+        <v>870</v>
+      </c>
+      <c r="C103">
+        <v>272</v>
+      </c>
+      <c r="D103">
+        <v>3775</v>
+      </c>
+      <c r="E103">
+        <v>3368</v>
+      </c>
+      <c r="F103">
+        <v>406</v>
+      </c>
+      <c r="G103">
+        <v>4145</v>
+      </c>
+      <c r="H103">
+        <v>1690</v>
+      </c>
+      <c r="I103">
+        <v>1090</v>
+      </c>
+      <c r="J103">
+        <v>600</v>
+      </c>
+      <c r="K103">
+        <v>89</v>
+      </c>
+      <c r="L103">
+        <v>220</v>
+      </c>
+      <c r="M103">
+        <v>287</v>
+      </c>
+      <c r="N103">
+        <v>884</v>
+      </c>
+      <c r="O103">
+        <v>270</v>
+      </c>
+      <c r="P103">
+        <v>615</v>
+      </c>
+      <c r="Q103">
+        <v>248</v>
+      </c>
+      <c r="R103">
+        <v>726</v>
+      </c>
+      <c r="S103">
+        <v>1074</v>
+      </c>
+      <c r="T103">
+        <v>2160</v>
+      </c>
+      <c r="U103">
+        <v>4639</v>
+      </c>
+      <c r="V103">
+        <v>4066</v>
+      </c>
+      <c r="W103">
+        <v>611</v>
+      </c>
+      <c r="X103">
+        <v>1565</v>
+      </c>
+      <c r="Y103">
+        <v>1426</v>
+      </c>
+      <c r="Z103">
+        <v>6094</v>
+      </c>
+      <c r="AA103">
+        <v>2223</v>
+      </c>
+      <c r="AB103">
+        <v>3902</v>
+      </c>
+      <c r="AC103">
+        <v>2902</v>
+      </c>
+      <c r="AD103">
+        <v>5176</v>
+      </c>
+      <c r="AE103">
+        <v>1904</v>
+      </c>
+      <c r="AF103">
+        <v>36066</v>
+      </c>
+      <c r="AG103">
+        <v>3454</v>
+      </c>
+      <c r="AH103">
+        <v>165</v>
+      </c>
+      <c r="AI103">
+        <v>39677</v>
       </c>
     </row>
   </sheetData>
